--- a/Test Data Driven/AI-Generated/TC1-Verify Contact Message Sent from Admin Home.xlsx
+++ b/Test Data Driven/AI-Generated/TC1-Verify Contact Message Sent from Admin Home.xlsx
@@ -446,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="75" customWidth="1" min="1" max="1"/>
+    <col width="76" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -465,7 +465,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/fillContactDetailsAndSendMessage-test-data</t>
+          <t>Data Files/AI-Generated/Common/enterContactDetailsAndSendMessage-test-data</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/Test Data Driven/AI-Generated/TC1-Verify Contact Message Sent from Admin Home.xlsx
+++ b/Test Data Driven/AI-Generated/TC1-Verify Contact Message Sent from Admin Home.xlsx
@@ -446,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="76" customWidth="1" min="1" max="1"/>
+    <col width="75" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -465,7 +465,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/enterContactDetailsAndSendMessage-test-data</t>
+          <t>Data Files/AI-Generated/Common/fillContactDetailsAndSendMessage-test-data</t>
         </is>
       </c>
       <c r="B2" t="n">
